--- a/data/trans_orig/Q4506-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q4506-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48624301-BD19-4C60-9E01-9F763E9ED469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCBC63FD-EAC6-4C56-BCFA-58EE524F4242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6E0E3AD-B3C2-4EBC-A7F8-CA81515C2906}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D861E400-B1EA-4B71-AF25-EAAC95BC30CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="607">
   <si>
     <t>Población según la frecuencia con la que utilizaron crema solar con el factor de protección de 50 o mayor el pasado verano al aire libre en 2012 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -72,1813 +72,1792 @@
     <t>7,26%</t>
   </si>
   <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia con la que utilizaron crema solar con el factor de protección de 50 o mayor el pasado verano al aire libre en 2015 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia con la que utilizaron crema solar con el factor de protección de 50 o mayor el pasado verano al aire libre en 2015 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
     <t>43,24%</t>
   </si>
   <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
   </si>
   <si>
     <t>27,22%</t>
   </si>
   <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
   </si>
   <si>
     <t>35,04%</t>
   </si>
   <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
   </si>
 </sst>
 </file>
@@ -2290,7 +2269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1813907-CB29-4FB1-A0C4-5CBE9BFF2045}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CE16E8-04BB-4F6E-9E68-FB1363C157DA}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2705,7 +2684,7 @@
         <v>61</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2699,13 @@
         <v>71514</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H10" s="7">
         <v>94</v>
@@ -2735,13 +2714,13 @@
         <v>100367</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M10" s="7">
         <v>161</v>
@@ -2750,13 +2729,13 @@
         <v>171881</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2750,13 @@
         <v>32259</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -2786,13 +2765,13 @@
         <v>29967</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -2801,13 +2780,13 @@
         <v>62226</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2801,13 @@
         <v>12907</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -2837,13 +2816,13 @@
         <v>28779</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>39</v>
@@ -2852,13 +2831,13 @@
         <v>41686</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2852,13 @@
         <v>34882</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -2888,13 +2867,13 @@
         <v>36575</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -2903,13 +2882,13 @@
         <v>71457</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2903,13 @@
         <v>642090</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>578</v>
@@ -2939,13 +2918,13 @@
         <v>622608</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>1174</v>
@@ -2954,13 +2933,13 @@
         <v>1264697</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2954,13 @@
         <v>973678</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H15" s="7">
         <v>1246</v>
@@ -2990,33 +2969,33 @@
         <v>1336614</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>2153</v>
       </c>
       <c r="N15" s="7">
-        <v>2310292</v>
+        <v>2310291</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -3028,13 +3007,13 @@
         <v>153390</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="H16" s="7">
         <v>293</v>
@@ -3043,13 +3022,13 @@
         <v>318324</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>438</v>
@@ -3058,13 +3037,13 @@
         <v>471714</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3058,13 @@
         <v>52414</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>83</v>
@@ -3094,13 +3073,13 @@
         <v>86639</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>133</v>
@@ -3109,13 +3088,13 @@
         <v>139053</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3109,13 @@
         <v>31452</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="H18" s="7">
         <v>61</v>
@@ -3145,13 +3124,13 @@
         <v>64408</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -3160,13 +3139,13 @@
         <v>95860</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,13 +3160,13 @@
         <v>87747</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>111</v>
@@ -3196,13 +3175,13 @@
         <v>119698</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>192</v>
@@ -3211,13 +3190,13 @@
         <v>207445</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,13 +3211,13 @@
         <v>73640</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H20" s="7">
         <v>105</v>
@@ -3247,13 +3226,13 @@
         <v>110953</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>171</v>
@@ -3262,13 +3241,13 @@
         <v>184593</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3262,13 @@
         <v>74255</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="H21" s="7">
         <v>98</v>
@@ -3298,13 +3277,13 @@
         <v>105008</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>170</v>
@@ -3313,13 +3292,13 @@
         <v>179263</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3313,13 @@
         <v>149286</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -3349,13 +3328,13 @@
         <v>169520</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>308</v>
@@ -3364,13 +3343,13 @@
         <v>318806</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3364,13 @@
         <v>108328</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -3400,13 +3379,13 @@
         <v>60191</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>162</v>
@@ -3415,13 +3394,13 @@
         <v>168519</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3415,13 @@
         <v>62040</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -3451,13 +3430,13 @@
         <v>31012</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>92</v>
@@ -3466,13 +3445,13 @@
         <v>93052</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3466,13 @@
         <v>113168</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -3502,13 +3481,13 @@
         <v>72464</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="M25" s="7">
         <v>175</v>
@@ -3517,13 +3496,13 @@
         <v>185632</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3517,13 @@
         <v>1053532</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>560</v>
@@ -3553,13 +3532,13 @@
         <v>614251</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>1550</v>
@@ -3568,13 +3547,13 @@
         <v>1667784</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3568,13 @@
         <v>1959253</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H27" s="7">
         <v>1630</v>
@@ -3604,13 +3583,13 @@
         <v>1752469</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M27" s="7">
         <v>3481</v>
@@ -3619,18 +3598,18 @@
         <v>3711722</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -3642,13 +3621,13 @@
         <v>43355</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>89</v>
@@ -3657,13 +3636,13 @@
         <v>99180</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>126</v>
@@ -3672,13 +3651,13 @@
         <v>142535</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3672,13 @@
         <v>14857</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -3708,13 +3687,13 @@
         <v>27529</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -3723,13 +3702,13 @@
         <v>42387</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3723,13 @@
         <v>16935</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -3798,7 +3777,7 @@
         <v>221</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>222</v>
@@ -3828,10 +3807,10 @@
         <v>226</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,13 +3825,13 @@
         <v>16191</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -3861,10 +3840,10 @@
         <v>25505</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>232</v>
@@ -3876,13 +3855,13 @@
         <v>41697</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3876,13 @@
         <v>33646</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H33" s="7">
         <v>19</v>
@@ -3912,13 +3891,13 @@
         <v>21775</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="M33" s="7">
         <v>47</v>
@@ -3927,13 +3906,13 @@
         <v>55421</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3927,13 @@
         <v>60902</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H34" s="7">
         <v>37</v>
@@ -3963,13 +3942,13 @@
         <v>40981</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M34" s="7">
         <v>94</v>
@@ -3978,13 +3957,13 @@
         <v>101884</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +3978,13 @@
         <v>37424</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H35" s="7">
         <v>20</v>
@@ -4014,13 +3993,13 @@
         <v>22255</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M35" s="7">
         <v>54</v>
@@ -4029,13 +4008,13 @@
         <v>59680</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4029,13 @@
         <v>8686</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>261</v>
+        <v>34</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -4083,10 +4062,10 @@
         <v>266</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>267</v>
+        <v>121</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4080,13 @@
         <v>30763</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -4116,10 +4095,10 @@
         <v>18080</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>272</v>
@@ -4134,7 +4113,7 @@
         <v>273</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>274</v>
@@ -4203,13 +4182,13 @@
         <v>480252</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H39" s="7">
         <v>411</v>
@@ -4218,13 +4197,13 @@
         <v>456660</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M39" s="7">
         <v>848</v>
@@ -4233,13 +4212,13 @@
         <v>936912</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,7 +4286,7 @@
         <v>85525</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>293</v>
@@ -4322,13 +4301,13 @@
         <v>165581</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M41" s="7">
         <v>233</v>
@@ -4337,13 +4316,13 @@
         <v>251107</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,10 +4340,10 @@
         <v>263</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>60</v>
+        <v>298</v>
       </c>
       <c r="H42" s="7">
         <v>100</v>
@@ -4373,13 +4352,13 @@
         <v>106726</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M42" s="7">
         <v>149</v>
@@ -4388,13 +4367,13 @@
         <v>160249</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>26</v>
+        <v>301</v>
       </c>
       <c r="P42" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4388,13 @@
         <v>178140</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="G43" s="7" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="H43" s="7">
         <v>230</v>
@@ -4424,13 +4403,13 @@
         <v>246699</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K43" s="7" t="s">
-        <v>308</v>
-      </c>
       <c r="L43" s="7" t="s">
-        <v>309</v>
+        <v>104</v>
       </c>
       <c r="M43" s="7">
         <v>396</v>
@@ -4439,13 +4418,13 @@
         <v>424840</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>310</v>
+        <v>116</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>110</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4439,13 @@
         <v>117115</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H44" s="7">
         <v>165</v>
@@ -4475,13 +4454,13 @@
         <v>176088</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>148</v>
+        <v>312</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>183</v>
+        <v>313</v>
       </c>
       <c r="M44" s="7">
         <v>273</v>
@@ -4493,10 +4472,10 @@
         <v>312</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>238</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4490,13 @@
         <v>115371</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H45" s="7">
         <v>155</v>
@@ -4526,13 +4505,13 @@
         <v>167766</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>122</v>
+        <v>317</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>316</v>
+        <v>161</v>
       </c>
       <c r="M45" s="7">
         <v>262</v>
@@ -4541,13 +4520,13 @@
         <v>283137</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>122</v>
+        <v>296</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4541,13 @@
         <v>281703</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="H46" s="7">
         <v>295</v>
@@ -4577,13 +4556,13 @@
         <v>310869</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M46" s="7">
         <v>563</v>
@@ -4592,13 +4571,13 @@
         <v>592571</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4592,13 @@
         <v>178011</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>211</v>
+        <v>327</v>
       </c>
       <c r="H47" s="7">
         <v>108</v>
@@ -4628,13 +4607,13 @@
         <v>112414</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>124</v>
+        <v>329</v>
       </c>
       <c r="M47" s="7">
         <v>274</v>
@@ -4643,13 +4622,13 @@
         <v>290425</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4643,13 @@
         <v>83633</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>329</v>
+        <v>271</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H48" s="7">
         <v>62</v>
@@ -4679,13 +4658,13 @@
         <v>66945</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M48" s="7">
         <v>146</v>
@@ -4694,13 +4673,13 @@
         <v>150578</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>260</v>
+        <v>337</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>336</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4694,13 @@
         <v>178814</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>171</v>
+        <v>339</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>306</v>
+        <v>220</v>
       </c>
       <c r="H49" s="7">
         <v>117</v>
@@ -4730,13 +4709,13 @@
         <v>127118</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M49" s="7">
         <v>290</v>
@@ -4745,13 +4724,13 @@
         <v>305932</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>340</v>
+        <v>92</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>236</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4745,13 @@
         <v>1873899</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H50" s="7">
         <v>1248</v>
@@ -4781,13 +4760,13 @@
         <v>1357861</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M50" s="7">
         <v>2997</v>
@@ -4796,13 +4775,13 @@
         <v>3231761</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,13 +4796,13 @@
         <v>3413182</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H51" s="7">
         <v>3287</v>
@@ -4832,13 +4811,13 @@
         <v>3545742</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M51" s="7">
         <v>6482</v>
@@ -4847,18 +4826,18 @@
         <v>6958925</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -4877,7 +4856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49B55FF-19B6-4354-BF41-E20E4716110D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938F3847-1A12-455D-AD33-E5B7BC47FCEF}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4894,7 +4873,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5001,13 +4980,13 @@
         <v>40833</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>252</v>
+        <v>355</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>352</v>
+        <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H4" s="7">
         <v>137</v>
@@ -5016,13 +4995,13 @@
         <v>155460</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M4" s="7">
         <v>179</v>
@@ -5031,13 +5010,13 @@
         <v>196293</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5031,13 @@
         <v>18619</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>360</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>61</v>
+        <v>363</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H5" s="7">
         <v>51</v>
@@ -5067,13 +5046,13 @@
         <v>54486</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>363</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>366</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
@@ -5082,13 +5061,13 @@
         <v>73105</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>368</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,13 +5082,13 @@
         <v>28217</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H6" s="7">
         <v>48</v>
@@ -5121,10 +5100,10 @@
         <v>37</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M6" s="7">
         <v>77</v>
@@ -5133,13 +5112,13 @@
         <v>80336</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>74</v>
+        <v>373</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>367</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5133,13 @@
         <v>38469</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="H7" s="7">
         <v>60</v>
@@ -5169,13 +5148,13 @@
         <v>68810</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>371</v>
+        <v>269</v>
       </c>
       <c r="M7" s="7">
         <v>97</v>
@@ -5184,13 +5163,13 @@
         <v>107279</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>272</v>
+        <v>376</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>372</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5184,13 @@
         <v>23626</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>374</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>74</v>
+        <v>305</v>
       </c>
       <c r="H8" s="7">
         <v>45</v>
@@ -5220,13 +5199,13 @@
         <v>47618</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>377</v>
+        <v>68</v>
       </c>
       <c r="M8" s="7">
         <v>70</v>
@@ -5235,13 +5214,13 @@
         <v>71244</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>352</v>
+        <v>59</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>76</v>
+        <v>381</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5235,13 @@
         <v>19248</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -5271,13 +5250,13 @@
         <v>47036</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>131</v>
+        <v>385</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M9" s="7">
         <v>64</v>
@@ -5286,13 +5265,13 @@
         <v>66284</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>258</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5286,13 @@
         <v>27985</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -5322,13 +5301,13 @@
         <v>56793</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>392</v>
       </c>
       <c r="M10" s="7">
         <v>78</v>
@@ -5337,13 +5316,13 @@
         <v>84778</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>142</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5337,13 @@
         <v>24477</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>391</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -5373,13 +5352,13 @@
         <v>27816</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>396</v>
       </c>
       <c r="M11" s="7">
         <v>49</v>
@@ -5388,13 +5367,13 @@
         <v>52293</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>395</v>
+        <v>122</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,13 +5388,13 @@
         <v>19312</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -5424,13 +5403,13 @@
         <v>19762</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>400</v>
+        <v>173</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>95</v>
+        <v>257</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -5439,13 +5418,13 @@
         <v>39075</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>380</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>95</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5439,13 @@
         <v>31401</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>402</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -5475,13 +5454,13 @@
         <v>27675</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>404</v>
+        <v>124</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>405</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>406</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -5490,13 +5469,13 @@
         <v>59076</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>407</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>406</v>
+        <v>303</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5490,13 @@
         <v>479296</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H14" s="7">
         <v>384</v>
@@ -5526,13 +5505,13 @@
         <v>433329</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M14" s="7">
         <v>870</v>
@@ -5541,13 +5520,13 @@
         <v>912624</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5541,13 @@
         <v>751482</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H15" s="7">
         <v>889</v>
@@ -5577,13 +5556,13 @@
         <v>990906</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>1648</v>
@@ -5592,18 +5571,18 @@
         <v>1742387</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -5615,10 +5594,10 @@
         <v>198208</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>418</v>
@@ -5648,10 +5627,10 @@
         <v>422</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>423</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5645,13 @@
         <v>98053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>131</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H17" s="7">
         <v>174</v>
@@ -5681,13 +5660,13 @@
         <v>178397</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>426</v>
+        <v>253</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M17" s="7">
         <v>264</v>
@@ -5696,13 +5675,13 @@
         <v>276450</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>429</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>241</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,13 +5696,13 @@
         <v>156743</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>158</v>
+        <v>432</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>431</v>
+        <v>286</v>
       </c>
       <c r="H18" s="7">
         <v>198</v>
@@ -5732,13 +5711,13 @@
         <v>204492</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>200</v>
+        <v>434</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M18" s="7">
         <v>347</v>
@@ -5747,13 +5726,13 @@
         <v>361235</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,13 +5747,13 @@
         <v>158177</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>437</v>
+        <v>141</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>158</v>
+        <v>439</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>438</v>
+        <v>248</v>
       </c>
       <c r="H19" s="7">
         <v>194</v>
@@ -5783,13 +5762,13 @@
         <v>205899</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M19" s="7">
         <v>343</v>
@@ -5798,13 +5777,13 @@
         <v>364076</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,10 +5798,10 @@
         <v>96424</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>444</v>
+        <v>388</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>445</v>
@@ -5834,7 +5813,7 @@
         <v>114042</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>424</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>446</v>
@@ -5852,10 +5831,10 @@
         <v>273</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5849,13 @@
         <v>162150</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>451</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>452</v>
+        <v>12</v>
       </c>
       <c r="H21" s="7">
         <v>142</v>
@@ -5885,13 +5864,13 @@
         <v>145655</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M21" s="7">
         <v>295</v>
@@ -5900,13 +5879,13 @@
         <v>307805</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5900,13 @@
         <v>102681</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>458</v>
+        <v>86</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>457</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>459</v>
+        <v>393</v>
       </c>
       <c r="H22" s="7">
         <v>103</v>
@@ -5936,13 +5915,13 @@
         <v>105440</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>461</v>
+        <v>268</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>462</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>202</v>
@@ -5951,13 +5930,13 @@
         <v>208121</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>463</v>
+        <v>382</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>464</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,13 +5951,13 @@
         <v>95784</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>74</v>
@@ -5987,13 +5966,13 @@
         <v>73255</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>466</v>
+        <v>54</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>269</v>
+        <v>460</v>
       </c>
       <c r="M23" s="7">
         <v>162</v>
@@ -6002,13 +5981,13 @@
         <v>169039</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>468</v>
+        <v>130</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +6002,13 @@
         <v>77903</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>27</v>
+        <v>329</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>391</v>
+        <v>462</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -6038,13 +6017,13 @@
         <v>52574</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>304</v>
+        <v>463</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>265</v>
+        <v>464</v>
       </c>
       <c r="M24" s="7">
         <v>125</v>
@@ -6053,13 +6032,13 @@
         <v>130478</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>22</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6053,13 @@
         <v>90320</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>472</v>
+        <v>268</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -6089,28 +6068,28 @@
         <v>51422</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M25" s="7">
         <v>133</v>
       </c>
       <c r="N25" s="7">
-        <v>141742</v>
+        <v>141741</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>478</v>
+        <v>265</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>387</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>59</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6104,13 @@
         <v>826578</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H26" s="7">
         <v>413</v>
@@ -6140,13 +6119,13 @@
         <v>435286</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M26" s="7">
         <v>1192</v>
@@ -6155,13 +6134,13 @@
         <v>1261864</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,13 +6155,13 @@
         <v>2063021</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H27" s="7">
         <v>1901</v>
@@ -6191,33 +6170,33 @@
         <v>1979548</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M27" s="7">
         <v>3840</v>
       </c>
       <c r="N27" s="7">
-        <v>4042570</v>
+        <v>4042569</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -6229,13 +6208,13 @@
         <v>93193</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H28" s="7">
         <v>158</v>
@@ -6244,13 +6223,13 @@
         <v>168611</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="M28" s="7">
         <v>242</v>
@@ -6259,13 +6238,13 @@
         <v>261804</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6259,13 @@
         <v>47767</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="H29" s="7">
         <v>50</v>
@@ -6295,13 +6274,13 @@
         <v>52500</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>500</v>
+        <v>241</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="M29" s="7">
         <v>96</v>
@@ -6310,13 +6289,13 @@
         <v>100267</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6310,13 @@
         <v>45827</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>161</v>
+        <v>498</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>248</v>
+        <v>360</v>
       </c>
       <c r="H30" s="7">
         <v>53</v>
@@ -6346,13 +6325,13 @@
         <v>56482</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="M30" s="7">
         <v>96</v>
@@ -6361,13 +6340,13 @@
         <v>102309</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>511</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6361,13 @@
         <v>52545</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>513</v>
+        <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="H31" s="7">
         <v>40</v>
@@ -6397,13 +6376,13 @@
         <v>41749</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>439</v>
+        <v>508</v>
       </c>
       <c r="M31" s="7">
         <v>89</v>
@@ -6412,13 +6391,13 @@
         <v>94295</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6433,13 +6412,13 @@
         <v>34995</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>519</v>
+        <v>119</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="H32" s="7">
         <v>32</v>
@@ -6448,13 +6427,13 @@
         <v>32412</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>403</v>
+        <v>513</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>521</v>
+        <v>171</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="M32" s="7">
         <v>64</v>
@@ -6463,13 +6442,13 @@
         <v>67407</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>272</v>
+        <v>376</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>284</v>
+        <v>516</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6484,13 +6463,13 @@
         <v>32664</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>406</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="H33" s="7">
         <v>45</v>
@@ -6499,13 +6478,13 @@
         <v>44126</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>525</v>
+        <v>232</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>239</v>
+        <v>518</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="M33" s="7">
         <v>74</v>
@@ -6514,13 +6493,13 @@
         <v>76790</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>166</v>
+        <v>521</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6535,13 +6514,13 @@
         <v>32878</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>259</v>
+        <v>523</v>
       </c>
       <c r="H34" s="7">
         <v>29</v>
@@ -6550,13 +6529,13 @@
         <v>30030</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>530</v>
+        <v>254</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>531</v>
+        <v>340</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>227</v>
+        <v>524</v>
       </c>
       <c r="M34" s="7">
         <v>58</v>
@@ -6565,13 +6544,13 @@
         <v>62908</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>10</v>
+        <v>526</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,13 +6565,13 @@
         <v>20074</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>533</v>
+        <v>26</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>136</v>
+        <v>468</v>
       </c>
       <c r="H35" s="7">
         <v>18</v>
@@ -6601,13 +6580,13 @@
         <v>17018</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>405</v>
+        <v>229</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>156</v>
+        <v>462</v>
       </c>
       <c r="M35" s="7">
         <v>38</v>
@@ -6616,13 +6595,13 @@
         <v>37092</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>265</v>
+        <v>407</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>318</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,13 +6616,13 @@
         <v>13924</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>339</v>
+        <v>528</v>
       </c>
       <c r="H36" s="7">
         <v>9</v>
@@ -6652,13 +6631,13 @@
         <v>9577</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>262</v>
+        <v>128</v>
       </c>
       <c r="M36" s="7">
         <v>22</v>
@@ -6667,13 +6646,13 @@
         <v>23501</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>72</v>
+        <v>532</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,13 +6667,13 @@
         <v>24430</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>95</v>
+        <v>459</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>538</v>
+        <v>309</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -6703,13 +6682,13 @@
         <v>7250</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>62</v>
+        <v>535</v>
       </c>
       <c r="M37" s="7">
         <v>30</v>
@@ -6721,10 +6700,10 @@
         <v>52</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>33</v>
+        <v>536</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>541</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6718,13 @@
         <v>146649</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="H38" s="7">
         <v>85</v>
@@ -6754,13 +6733,13 @@
         <v>89385</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="M38" s="7">
         <v>216</v>
@@ -6769,13 +6748,13 @@
         <v>236034</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6769,13 @@
         <v>544948</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H39" s="7">
         <v>526</v>
@@ -6805,13 +6784,13 @@
         <v>549140</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M39" s="7">
         <v>1025</v>
@@ -6820,13 +6799,13 @@
         <v>1094088</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6843,13 +6822,13 @@
         <v>332234</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>159</v>
+        <v>251</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H40" s="7">
         <v>687</v>
@@ -6858,13 +6837,13 @@
         <v>737158</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="M40" s="7">
         <v>996</v>
@@ -6873,13 +6852,13 @@
         <v>1069391</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,13 +6873,13 @@
         <v>164439</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>559</v>
+        <v>343</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>327</v>
+        <v>554</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="H41" s="7">
         <v>275</v>
@@ -6909,13 +6888,13 @@
         <v>285383</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="M41" s="7">
         <v>429</v>
@@ -6924,13 +6903,13 @@
         <v>449822</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>239</v>
+        <v>559</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,13 +6924,13 @@
         <v>230787</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>365</v>
+        <v>560</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H42" s="7">
         <v>299</v>
@@ -6960,13 +6939,13 @@
         <v>313093</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>567</v>
+        <v>155</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>568</v>
+        <v>516</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="M42" s="7">
         <v>520</v>
@@ -6975,13 +6954,13 @@
         <v>543880</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6996,13 +6975,13 @@
         <v>249191</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>573</v>
+        <v>377</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>161</v>
+        <v>498</v>
       </c>
       <c r="H43" s="7">
         <v>294</v>
@@ -7011,13 +6990,13 @@
         <v>316458</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>575</v>
+        <v>269</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="M43" s="7">
         <v>529</v>
@@ -7026,13 +7005,13 @@
         <v>565649</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>212</v>
+        <v>572</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,13 +7026,13 @@
         <v>155045</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>580</v>
+        <v>319</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>581</v>
+        <v>115</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>515</v>
+        <v>131</v>
       </c>
       <c r="H44" s="7">
         <v>187</v>
@@ -7062,13 +7041,13 @@
         <v>194072</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>523</v>
+        <v>150</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>583</v>
+        <v>139</v>
       </c>
       <c r="M44" s="7">
         <v>336</v>
@@ -7077,13 +7056,13 @@
         <v>349116</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>167</v>
+        <v>575</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,13 +7077,13 @@
         <v>214062</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>136</v>
+        <v>308</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="H45" s="7">
         <v>232</v>
@@ -7113,13 +7092,13 @@
         <v>236817</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>538</v>
+        <v>578</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>390</v>
+        <v>579</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>455</v>
+        <v>580</v>
       </c>
       <c r="M45" s="7">
         <v>433</v>
@@ -7128,13 +7107,13 @@
         <v>450879</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>40</v>
+        <v>518</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7128,13 @@
         <v>163544</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>589</v>
+        <v>522</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H46" s="7">
         <v>182</v>
@@ -7164,13 +7143,13 @@
         <v>192263</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>591</v>
+        <v>386</v>
       </c>
       <c r="M46" s="7">
         <v>338</v>
@@ -7179,13 +7158,13 @@
         <v>355807</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>24</v>
+        <v>585</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>592</v>
+        <v>44</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>388</v>
+        <v>586</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7179,13 @@
         <v>140335</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>593</v>
+        <v>212</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>458</v>
+        <v>587</v>
       </c>
       <c r="H47" s="7">
         <v>117</v>
@@ -7215,13 +7194,13 @@
         <v>118090</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>596</v>
+        <v>115</v>
       </c>
       <c r="M47" s="7">
         <v>249</v>
@@ -7230,13 +7209,13 @@
         <v>258425</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>597</v>
+        <v>70</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>589</v>
+        <v>554</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7251,13 +7230,13 @@
         <v>111140</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>304</v>
+        <v>590</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>598</v>
+        <v>317</v>
       </c>
       <c r="H48" s="7">
         <v>80</v>
@@ -7266,13 +7245,13 @@
         <v>81913</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>600</v>
+        <v>19</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="M48" s="7">
         <v>184</v>
@@ -7281,13 +7260,13 @@
         <v>193053</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>219</v>
+        <v>594</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7302,13 +7281,13 @@
         <v>146151</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>461</v>
+        <v>595</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>603</v>
+        <v>300</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>604</v>
+        <v>374</v>
       </c>
       <c r="H49" s="7">
         <v>81</v>
@@ -7317,13 +7296,13 @@
         <v>86347</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>329</v>
+        <v>271</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>119</v>
+        <v>596</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>182</v>
+        <v>597</v>
       </c>
       <c r="M49" s="7">
         <v>221</v>
@@ -7332,13 +7311,13 @@
         <v>232498</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>361</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7353,13 +7332,13 @@
         <v>1452522</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="H50" s="7">
         <v>882</v>
@@ -7368,13 +7347,13 @@
         <v>958001</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="M50" s="7">
         <v>2278</v>
@@ -7383,13 +7362,13 @@
         <v>2410523</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,13 +7383,13 @@
         <v>3359450</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H51" s="7">
         <v>3316</v>
@@ -7419,13 +7398,13 @@
         <v>3519594</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M51" s="7">
         <v>6513</v>
@@ -7434,18 +7413,18 @@
         <v>6879044</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q4506-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q4506-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCBC63FD-EAC6-4C56-BCFA-58EE524F4242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29BC5247-EB50-4332-BEFA-D827E0AD02CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D861E400-B1EA-4B71-AF25-EAAC95BC30CA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE98C7EF-0B82-448D-BA92-921E4CD868C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="612">
   <si>
     <t>Población según la frecuencia con la que utilizaron crema solar con el factor de protección de 50 o mayor el pasado verano al aire libre en 2012 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -72,25 +72,25 @@
     <t>7,26%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
   </si>
   <si>
     <t>21,71%</t>
   </si>
   <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
   </si>
   <si>
     <t>15,62%</t>
   </si>
   <si>
-    <t>14,11%</t>
+    <t>14,18%</t>
   </si>
   <si>
     <t>17,22%</t>
@@ -99,1765 +99,1780 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>1,12%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia con la que utilizaron crema solar con el factor de protección de 50 o mayor el pasado verano al aire libre en 2016 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
   </si>
   <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia con la que utilizaron crema solar con el factor de protección de 50 o mayor el pasado verano al aire libre en 2015 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>5,1%</t>
   </si>
   <si>
     <t>43,24%</t>
   </si>
   <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
   </si>
   <si>
     <t>27,22%</t>
   </si>
   <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
   </si>
   <si>
     <t>35,04%</t>
   </si>
   <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
   </si>
 </sst>
 </file>
@@ -2269,7 +2284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CE16E8-04BB-4F6E-9E68-FB1363C157DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D776D2-EE45-4932-90EC-2A75532B6A4A}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2501,7 +2516,7 @@
         <v>29</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -2510,13 +2525,13 @@
         <v>17129</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -2525,13 +2540,13 @@
         <v>22264</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2561,13 @@
         <v>51180</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -2561,13 +2576,13 @@
         <v>78995</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>125</v>
@@ -2576,13 +2591,13 @@
         <v>130174</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2612,13 @@
         <v>27284</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>37</v>
@@ -2612,13 +2627,13 @@
         <v>39630</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>64</v>
@@ -2627,13 +2642,13 @@
         <v>66913</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2663,13 @@
         <v>7470</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>38</v>
@@ -2663,13 +2678,13 @@
         <v>40983</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>45</v>
@@ -2678,13 +2693,13 @@
         <v>48453</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,10 +2714,10 @@
         <v>71514</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>63</v>
@@ -2756,7 +2771,7 @@
         <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -2765,7 +2780,7 @@
         <v>29967</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>73</v>
@@ -2807,7 +2822,7 @@
         <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -2816,10 +2831,10 @@
         <v>28779</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>74</v>
@@ -2831,13 +2846,13 @@
         <v>41686</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2867,13 @@
         <v>34882</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -2867,13 +2882,13 @@
         <v>36575</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -2882,13 +2897,13 @@
         <v>71457</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2918,13 @@
         <v>642090</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>578</v>
@@ -2918,13 +2933,13 @@
         <v>622608</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>1174</v>
@@ -2933,13 +2948,13 @@
         <v>1264697</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2969,13 @@
         <v>973678</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H15" s="7">
         <v>1246</v>
@@ -2969,33 +2984,33 @@
         <v>1336614</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M15" s="7">
         <v>2153</v>
       </c>
       <c r="N15" s="7">
-        <v>2310291</v>
+        <v>2310292</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -3007,13 +3022,13 @@
         <v>153390</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>293</v>
@@ -3022,13 +3037,13 @@
         <v>318324</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>438</v>
@@ -3037,13 +3052,13 @@
         <v>471714</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3073,13 @@
         <v>52414</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>83</v>
@@ -3073,13 +3088,13 @@
         <v>86639</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>133</v>
@@ -3088,13 +3103,13 @@
         <v>139053</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3124,13 @@
         <v>31452</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>61</v>
@@ -3124,13 +3139,13 @@
         <v>64408</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -3139,13 +3154,13 @@
         <v>95860</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,7 +3181,7 @@
         <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="H19" s="7">
         <v>111</v>
@@ -3175,13 +3190,13 @@
         <v>119698</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>192</v>
@@ -3190,13 +3205,13 @@
         <v>207445</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3226,13 @@
         <v>73640</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>105</v>
@@ -3226,13 +3241,13 @@
         <v>110953</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>171</v>
@@ -3241,13 +3256,13 @@
         <v>184593</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3277,13 @@
         <v>74255</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H21" s="7">
         <v>98</v>
@@ -3277,13 +3292,13 @@
         <v>105008</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>170</v>
@@ -3292,13 +3307,13 @@
         <v>179263</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,13 +3328,13 @@
         <v>149286</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -3328,13 +3343,13 @@
         <v>169520</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>308</v>
@@ -3343,13 +3358,13 @@
         <v>318806</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3379,13 @@
         <v>108328</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -3379,13 +3394,13 @@
         <v>60191</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>162</v>
@@ -3394,13 +3409,13 @@
         <v>168519</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3430,13 @@
         <v>62040</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -3430,13 +3445,13 @@
         <v>31012</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>92</v>
@@ -3445,13 +3460,13 @@
         <v>93052</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3481,13 @@
         <v>113168</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -3481,13 +3496,13 @@
         <v>72464</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>175</v>
@@ -3496,13 +3511,13 @@
         <v>185632</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3532,13 @@
         <v>1053532</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>560</v>
@@ -3532,13 +3547,13 @@
         <v>614251</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>1550</v>
@@ -3547,13 +3562,13 @@
         <v>1667784</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3583,13 @@
         <v>1959253</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H27" s="7">
         <v>1630</v>
@@ -3583,13 +3598,13 @@
         <v>1752469</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M27" s="7">
         <v>3481</v>
@@ -3598,18 +3613,18 @@
         <v>3711722</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -3621,13 +3636,13 @@
         <v>43355</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>89</v>
@@ -3636,13 +3651,13 @@
         <v>99180</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>126</v>
@@ -3651,13 +3666,13 @@
         <v>142535</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +3687,13 @@
         <v>14857</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -3687,13 +3702,13 @@
         <v>27529</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -3702,13 +3717,13 @@
         <v>42387</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3738,13 @@
         <v>16935</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -3738,13 +3753,13 @@
         <v>25189</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>51</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -3753,13 +3768,13 @@
         <v>42125</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3789,13 @@
         <v>39213</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>43</v>
@@ -3789,13 +3804,13 @@
         <v>48007</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>79</v>
@@ -3804,13 +3819,13 @@
         <v>87220</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3840,13 @@
         <v>16191</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -3840,13 +3855,13 @@
         <v>25505</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>231</v>
+        <v>117</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>38</v>
@@ -3855,13 +3870,13 @@
         <v>41697</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3891,13 @@
         <v>33646</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H33" s="7">
         <v>19</v>
@@ -3891,13 +3906,13 @@
         <v>21775</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M33" s="7">
         <v>47</v>
@@ -3906,13 +3921,13 @@
         <v>55421</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>244</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,13 +3942,13 @@
         <v>60902</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H34" s="7">
         <v>37</v>
@@ -3942,13 +3957,13 @@
         <v>40981</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>94</v>
@@ -3957,13 +3972,13 @@
         <v>101884</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +3993,13 @@
         <v>37424</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H35" s="7">
         <v>20</v>
@@ -3993,13 +4008,13 @@
         <v>22255</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M35" s="7">
         <v>54</v>
@@ -4008,13 +4023,13 @@
         <v>59680</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4044,13 @@
         <v>8686</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -4044,13 +4059,13 @@
         <v>7154</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>263</v>
+        <v>59</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>15</v>
@@ -4059,13 +4074,13 @@
         <v>15840</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>121</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>240</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4095,13 @@
         <v>30763</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -4095,13 +4110,13 @@
         <v>18080</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>270</v>
+        <v>47</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M37" s="7">
         <v>48</v>
@@ -4110,13 +4125,13 @@
         <v>48843</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>89</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,13 +4146,13 @@
         <v>178278</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H38" s="7">
         <v>110</v>
@@ -4146,13 +4161,13 @@
         <v>121003</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M38" s="7">
         <v>273</v>
@@ -4161,13 +4176,13 @@
         <v>299281</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,13 +4197,13 @@
         <v>480252</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H39" s="7">
         <v>411</v>
@@ -4197,13 +4212,13 @@
         <v>456660</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M39" s="7">
         <v>848</v>
@@ -4212,13 +4227,13 @@
         <v>936912</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4250,13 @@
         <v>267447</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="H40" s="7">
         <v>653</v>
@@ -4250,13 +4265,13 @@
         <v>707674</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="M40" s="7">
         <v>899</v>
@@ -4265,13 +4280,13 @@
         <v>975122</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4301,13 @@
         <v>85525</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="H41" s="7">
         <v>154</v>
@@ -4301,13 +4316,13 @@
         <v>165581</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>72</v>
+        <v>286</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>51</v>
+        <v>287</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="M41" s="7">
         <v>233</v>
@@ -4316,13 +4331,13 @@
         <v>251107</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>130</v>
+        <v>289</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4352,13 @@
         <v>53523</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>263</v>
+        <v>59</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="H42" s="7">
         <v>100</v>
@@ -4352,13 +4367,13 @@
         <v>106726</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>271</v>
+        <v>170</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="M42" s="7">
         <v>149</v>
@@ -4367,13 +4382,13 @@
         <v>160249</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4403,13 @@
         <v>178140</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>304</v>
+        <v>139</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>305</v>
+        <v>129</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="H43" s="7">
         <v>230</v>
@@ -4403,13 +4418,13 @@
         <v>246699</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>104</v>
+        <v>298</v>
       </c>
       <c r="M43" s="7">
         <v>396</v>
@@ -4418,13 +4433,13 @@
         <v>424840</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>308</v>
+        <v>159</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4454,13 @@
         <v>117115</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>311</v>
+        <v>149</v>
       </c>
       <c r="H44" s="7">
         <v>165</v>
@@ -4454,13 +4469,13 @@
         <v>176088</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="M44" s="7">
         <v>273</v>
@@ -4469,13 +4484,13 @@
         <v>293203</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4505,13 @@
         <v>115371</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="H45" s="7">
         <v>155</v>
@@ -4505,13 +4520,13 @@
         <v>167766</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>161</v>
+        <v>307</v>
       </c>
       <c r="M45" s="7">
         <v>262</v>
@@ -4520,13 +4535,13 @@
         <v>283137</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>318</v>
+        <v>130</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4556,13 @@
         <v>281703</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>321</v>
+        <v>61</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="H46" s="7">
         <v>295</v>
@@ -4556,13 +4571,13 @@
         <v>310869</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="M46" s="7">
         <v>563</v>
@@ -4571,13 +4586,13 @@
         <v>592571</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,13 +4607,13 @@
         <v>178011</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>304</v>
+        <v>139</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="H47" s="7">
         <v>108</v>
@@ -4607,13 +4622,13 @@
         <v>112414</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>329</v>
+        <v>22</v>
       </c>
       <c r="M47" s="7">
         <v>274</v>
@@ -4622,13 +4637,13 @@
         <v>290425</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>72</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,13 +4658,13 @@
         <v>83633</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>271</v>
+        <v>85</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H48" s="7">
         <v>62</v>
@@ -4658,13 +4673,13 @@
         <v>66945</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>333</v>
+        <v>46</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="M48" s="7">
         <v>146</v>
@@ -4673,13 +4688,13 @@
         <v>150578</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>174</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4709,13 @@
         <v>178814</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="H49" s="7">
         <v>117</v>
@@ -4709,13 +4724,13 @@
         <v>127118</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>21</v>
+        <v>333</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="M49" s="7">
         <v>290</v>
@@ -4724,13 +4739,13 @@
         <v>305932</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>342</v>
+        <v>260</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>92</v>
+        <v>334</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,13 +4760,13 @@
         <v>1873899</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H50" s="7">
         <v>1248</v>
@@ -4760,13 +4775,13 @@
         <v>1357861</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="M50" s="7">
         <v>2997</v>
@@ -4775,13 +4790,13 @@
         <v>3231761</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4811,13 @@
         <v>3413182</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H51" s="7">
         <v>3287</v>
@@ -4811,13 +4826,13 @@
         <v>3545742</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M51" s="7">
         <v>6482</v>
@@ -4826,18 +4841,18 @@
         <v>6958925</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -4856,7 +4871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938F3847-1A12-455D-AD33-E5B7BC47FCEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFD601D-1FDD-4638-ACC7-739A48D857AF}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4873,7 +4888,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4980,13 +4995,13 @@
         <v>40833</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H4" s="7">
         <v>137</v>
@@ -4995,13 +5010,13 @@
         <v>155460</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="M4" s="7">
         <v>179</v>
@@ -5010,13 +5025,13 @@
         <v>196293</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>360</v>
+        <v>217</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,10 +5049,10 @@
         <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>364</v>
+        <v>37</v>
       </c>
       <c r="H5" s="7">
         <v>51</v>
@@ -5046,13 +5061,13 @@
         <v>54486</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>356</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
@@ -5061,13 +5076,13 @@
         <v>73105</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>367</v>
+        <v>57</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5097,13 @@
         <v>28217</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="H6" s="7">
         <v>48</v>
@@ -5097,13 +5112,13 @@
         <v>52119</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>92</v>
+        <v>361</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="M6" s="7">
         <v>77</v>
@@ -5112,13 +5127,13 @@
         <v>80336</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>373</v>
+        <v>40</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>133</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,13 +5148,13 @@
         <v>38469</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>117</v>
+        <v>363</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="H7" s="7">
         <v>60</v>
@@ -5148,13 +5163,13 @@
         <v>68810</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>205</v>
+        <v>368</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>269</v>
+        <v>369</v>
       </c>
       <c r="M7" s="7">
         <v>97</v>
@@ -5163,13 +5178,13 @@
         <v>107279</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>24</v>
+        <v>371</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5199,13 @@
         <v>23626</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>76</v>
+        <v>374</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>305</v>
+        <v>375</v>
       </c>
       <c r="H8" s="7">
         <v>45</v>
@@ -5199,13 +5214,13 @@
         <v>47618</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>68</v>
+        <v>378</v>
       </c>
       <c r="M8" s="7">
         <v>70</v>
@@ -5214,13 +5229,13 @@
         <v>71244</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>59</v>
+        <v>290</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>381</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>382</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5250,13 @@
         <v>19248</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -5250,13 +5265,13 @@
         <v>47036</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>385</v>
+        <v>137</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M9" s="7">
         <v>64</v>
@@ -5265,13 +5280,13 @@
         <v>66284</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5301,13 @@
         <v>27985</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>389</v>
+        <v>115</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -5301,13 +5316,13 @@
         <v>56793</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="M10" s="7">
         <v>78</v>
@@ -5316,13 +5331,13 @@
         <v>84778</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5352,13 @@
         <v>24477</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>234</v>
+        <v>390</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>319</v>
+        <v>391</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -5352,13 +5367,13 @@
         <v>27816</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>394</v>
+        <v>300</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>395</v>
+        <v>294</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M11" s="7">
         <v>49</v>
@@ -5367,13 +5382,13 @@
         <v>52293</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>397</v>
+        <v>324</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5403,13 @@
         <v>19312</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>401</v>
+        <v>119</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -5403,13 +5418,13 @@
         <v>19762</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>396</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>257</v>
+        <v>397</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -5418,13 +5433,13 @@
         <v>39075</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>56</v>
+        <v>398</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>402</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5454,13 @@
         <v>31401</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>404</v>
+        <v>42</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -5454,13 +5469,13 @@
         <v>27675</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>400</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -5469,13 +5484,13 @@
         <v>59076</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>303</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5505,13 @@
         <v>479296</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H14" s="7">
         <v>384</v>
@@ -5505,13 +5520,13 @@
         <v>433329</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M14" s="7">
         <v>870</v>
@@ -5520,13 +5535,13 @@
         <v>912624</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5556,13 @@
         <v>751482</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H15" s="7">
         <v>889</v>
@@ -5556,13 +5571,13 @@
         <v>990906</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M15" s="7">
         <v>1648</v>
@@ -5571,18 +5586,18 @@
         <v>1742387</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -5594,13 +5609,13 @@
         <v>198208</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>415</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H16" s="7">
         <v>392</v>
@@ -5609,13 +5624,13 @@
         <v>413086</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M16" s="7">
         <v>575</v>
@@ -5624,13 +5639,13 @@
         <v>611294</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>423</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5660,13 @@
         <v>98053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>385</v>
+        <v>137</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H17" s="7">
         <v>174</v>
@@ -5660,13 +5675,13 @@
         <v>178397</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>253</v>
+        <v>425</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M17" s="7">
         <v>264</v>
@@ -5675,13 +5690,13 @@
         <v>276450</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>430</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,13 +5711,13 @@
         <v>156743</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>431</v>
+        <v>387</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>286</v>
+        <v>429</v>
       </c>
       <c r="H18" s="7">
         <v>198</v>
@@ -5711,13 +5726,13 @@
         <v>204492</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M18" s="7">
         <v>347</v>
@@ -5726,13 +5741,13 @@
         <v>361235</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,13 +5762,13 @@
         <v>158177</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>141</v>
+        <v>436</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H19" s="7">
         <v>194</v>
@@ -5762,13 +5777,13 @@
         <v>205899</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M19" s="7">
         <v>343</v>
@@ -5777,13 +5792,13 @@
         <v>364076</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,13 +5813,13 @@
         <v>96424</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>72</v>
+        <v>286</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>445</v>
+        <v>211</v>
       </c>
       <c r="H20" s="7">
         <v>110</v>
@@ -5813,13 +5828,13 @@
         <v>114042</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>443</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>446</v>
+        <v>230</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M20" s="7">
         <v>202</v>
@@ -5828,13 +5843,13 @@
         <v>210466</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>209</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>448</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5864,13 @@
         <v>162150</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>450</v>
+        <v>107</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>142</v>
@@ -5864,13 +5879,13 @@
         <v>145655</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M21" s="7">
         <v>295</v>
@@ -5879,13 +5894,13 @@
         <v>307805</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5915,13 @@
         <v>102681</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>393</v>
+        <v>297</v>
       </c>
       <c r="H22" s="7">
         <v>103</v>
@@ -5915,13 +5930,13 @@
         <v>105440</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>268</v>
+        <v>455</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="M22" s="7">
         <v>202</v>
@@ -5930,13 +5945,13 @@
         <v>208121</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>382</v>
+        <v>456</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>457</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>404</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,10 +5969,10 @@
         <v>458</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>386</v>
       </c>
       <c r="H23" s="7">
         <v>74</v>
@@ -5966,13 +5981,13 @@
         <v>73255</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>54</v>
+        <v>459</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M23" s="7">
         <v>162</v>
@@ -5981,13 +5996,13 @@
         <v>169039</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>462</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>114</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +6017,13 @@
         <v>77903</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>329</v>
+        <v>464</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>462</v>
+        <v>375</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -6017,13 +6032,13 @@
         <v>52574</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>127</v>
+        <v>467</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="M24" s="7">
         <v>125</v>
@@ -6032,13 +6047,13 @@
         <v>130478</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>425</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6068,13 @@
         <v>90320</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>268</v>
+        <v>471</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>467</v>
+        <v>117</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -6068,13 +6083,13 @@
         <v>51422</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>470</v>
+        <v>294</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>471</v>
+        <v>223</v>
       </c>
       <c r="M25" s="7">
         <v>133</v>
@@ -6083,13 +6098,13 @@
         <v>141741</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>387</v>
+        <v>474</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>472</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6119,13 @@
         <v>826578</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H26" s="7">
         <v>413</v>
@@ -6119,13 +6134,13 @@
         <v>435286</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M26" s="7">
         <v>1192</v>
@@ -6134,13 +6149,13 @@
         <v>1261864</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>481</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6170,13 @@
         <v>2063021</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H27" s="7">
         <v>1901</v>
@@ -6170,13 +6185,13 @@
         <v>1979548</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M27" s="7">
         <v>3840</v>
@@ -6185,18 +6200,18 @@
         <v>4042569</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -6208,13 +6223,13 @@
         <v>93193</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H28" s="7">
         <v>158</v>
@@ -6223,13 +6238,13 @@
         <v>168611</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M28" s="7">
         <v>242</v>
@@ -6238,13 +6253,13 @@
         <v>261804</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6274,13 @@
         <v>47767</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H29" s="7">
         <v>50</v>
@@ -6274,13 +6289,13 @@
         <v>52500</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>241</v>
+        <v>495</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>494</v>
+        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>96</v>
@@ -6289,7 +6304,7 @@
         <v>100267</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>495</v>
+        <v>311</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>496</v>
@@ -6316,7 +6331,7 @@
         <v>499</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="H30" s="7">
         <v>53</v>
@@ -6325,13 +6340,13 @@
         <v>56482</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M30" s="7">
         <v>96</v>
@@ -6340,13 +6355,13 @@
         <v>102309</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>227</v>
+        <v>506</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6376,13 @@
         <v>52545</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>10</v>
+        <v>508</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H31" s="7">
         <v>40</v>
@@ -6376,13 +6391,13 @@
         <v>41749</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>431</v>
+        <v>387</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="M31" s="7">
         <v>89</v>
@@ -6391,13 +6406,13 @@
         <v>94295</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>366</v>
+        <v>513</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,13 +6427,13 @@
         <v>34995</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>119</v>
+        <v>455</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H32" s="7">
         <v>32</v>
@@ -6427,13 +6442,13 @@
         <v>32412</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="M32" s="7">
         <v>64</v>
@@ -6442,13 +6457,13 @@
         <v>67407</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>515</v>
+        <v>127</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>516</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6463,13 +6478,13 @@
         <v>32664</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>406</v>
+        <v>519</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="H33" s="7">
         <v>45</v>
@@ -6478,13 +6493,13 @@
         <v>44126</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>232</v>
+        <v>521</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="M33" s="7">
         <v>74</v>
@@ -6493,13 +6508,13 @@
         <v>76790</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6514,13 +6529,13 @@
         <v>32878</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>522</v>
+        <v>392</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="H34" s="7">
         <v>29</v>
@@ -6529,13 +6544,13 @@
         <v>30030</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>254</v>
+        <v>528</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>340</v>
+        <v>121</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="M34" s="7">
         <v>58</v>
@@ -6544,13 +6559,13 @@
         <v>62908</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>184</v>
+        <v>530</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6565,13 +6580,13 @@
         <v>20074</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>26</v>
+        <v>533</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
       <c r="H35" s="7">
         <v>18</v>
@@ -6580,13 +6595,13 @@
         <v>17018</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>229</v>
+        <v>535</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M35" s="7">
         <v>38</v>
@@ -6595,13 +6610,13 @@
         <v>37092</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>91</v>
+        <v>536</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>373</v>
+        <v>537</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,13 +6631,13 @@
         <v>13924</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>527</v>
+        <v>78</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>528</v>
+        <v>399</v>
       </c>
       <c r="H36" s="7">
         <v>9</v>
@@ -6631,13 +6646,13 @@
         <v>9577</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>128</v>
+        <v>540</v>
       </c>
       <c r="M36" s="7">
         <v>22</v>
@@ -6646,13 +6661,13 @@
         <v>23501</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6670,10 +6685,10 @@
         <v>129</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>459</v>
+        <v>333</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>309</v>
+        <v>543</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -6682,13 +6697,13 @@
         <v>7250</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>535</v>
+        <v>470</v>
       </c>
       <c r="M37" s="7">
         <v>30</v>
@@ -6697,13 +6712,13 @@
         <v>31681</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>536</v>
+        <v>323</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>59</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6733,13 @@
         <v>146649</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="H38" s="7">
         <v>85</v>
@@ -6733,13 +6748,13 @@
         <v>89385</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="M38" s="7">
         <v>216</v>
@@ -6748,13 +6763,13 @@
         <v>236034</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6784,13 @@
         <v>544948</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H39" s="7">
         <v>526</v>
@@ -6784,13 +6799,13 @@
         <v>549140</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M39" s="7">
         <v>1025</v>
@@ -6799,13 +6814,13 @@
         <v>1094088</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6822,13 +6837,13 @@
         <v>332234</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>251</v>
+        <v>556</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="H40" s="7">
         <v>687</v>
@@ -6837,13 +6852,13 @@
         <v>737158</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="M40" s="7">
         <v>996</v>
@@ -6852,13 +6867,13 @@
         <v>1069391</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6873,13 +6888,13 @@
         <v>164439</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>343</v>
+        <v>564</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>554</v>
+        <v>399</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>133</v>
+        <v>302</v>
       </c>
       <c r="H41" s="7">
         <v>275</v>
@@ -6888,13 +6903,13 @@
         <v>285383</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="M41" s="7">
         <v>429</v>
@@ -6903,13 +6918,13 @@
         <v>449822</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6924,13 +6939,13 @@
         <v>230787</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>560</v>
+        <v>444</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="H42" s="7">
         <v>299</v>
@@ -6939,13 +6954,13 @@
         <v>313093</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>155</v>
+        <v>573</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>563</v>
+        <v>441</v>
       </c>
       <c r="M42" s="7">
         <v>520</v>
@@ -6954,13 +6969,13 @@
         <v>543880</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>566</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6975,13 +6990,13 @@
         <v>249191</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>377</v>
+        <v>508</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>498</v>
+        <v>578</v>
       </c>
       <c r="H43" s="7">
         <v>294</v>
@@ -6990,13 +7005,13 @@
         <v>316458</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>269</v>
+        <v>369</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="M43" s="7">
         <v>529</v>
@@ -7005,13 +7020,13 @@
         <v>565649</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>571</v>
+        <v>219</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7026,13 +7041,13 @@
         <v>155045</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>319</v>
+        <v>583</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>115</v>
+        <v>584</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>131</v>
+        <v>385</v>
       </c>
       <c r="H44" s="7">
         <v>187</v>
@@ -7041,13 +7056,13 @@
         <v>194072</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>573</v>
+        <v>225</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="M44" s="7">
         <v>336</v>
@@ -7056,13 +7071,13 @@
         <v>349116</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>575</v>
+        <v>461</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,13 +7092,13 @@
         <v>214062</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>308</v>
+        <v>587</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>577</v>
+        <v>495</v>
       </c>
       <c r="H45" s="7">
         <v>232</v>
@@ -7092,13 +7107,13 @@
         <v>236817</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>579</v>
+        <v>389</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="M45" s="7">
         <v>433</v>
@@ -7107,13 +7122,13 @@
         <v>450879</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>518</v>
+        <v>146</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,13 +7143,13 @@
         <v>163544</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>522</v>
+        <v>453</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="H46" s="7">
         <v>182</v>
@@ -7143,13 +7158,13 @@
         <v>192263</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>584</v>
+        <v>307</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="M46" s="7">
         <v>338</v>
@@ -7158,13 +7173,13 @@
         <v>355807</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>44</v>
+        <v>593</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>586</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,13 +7194,13 @@
         <v>140335</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>212</v>
+        <v>468</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="H47" s="7">
         <v>117</v>
@@ -7194,13 +7209,13 @@
         <v>118090</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>589</v>
+        <v>300</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="M47" s="7">
         <v>249</v>
@@ -7209,13 +7224,13 @@
         <v>258425</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>70</v>
+        <v>596</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>554</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,10 +7248,10 @@
         <v>70</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>317</v>
+        <v>598</v>
       </c>
       <c r="H48" s="7">
         <v>80</v>
@@ -7245,13 +7260,13 @@
         <v>81913</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>19</v>
+        <v>535</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>592</v>
+        <v>465</v>
       </c>
       <c r="M48" s="7">
         <v>184</v>
@@ -7260,13 +7275,13 @@
         <v>193053</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>394</v>
+        <v>300</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>594</v>
+        <v>469</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7281,13 +7296,13 @@
         <v>146151</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>374</v>
+        <v>602</v>
       </c>
       <c r="H49" s="7">
         <v>81</v>
@@ -7296,13 +7311,13 @@
         <v>86347</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>271</v>
+        <v>85</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>596</v>
+        <v>284</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>597</v>
+        <v>383</v>
       </c>
       <c r="M49" s="7">
         <v>221</v>
@@ -7311,13 +7326,13 @@
         <v>232498</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7332,13 +7347,13 @@
         <v>1452522</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="H50" s="7">
         <v>882</v>
@@ -7347,13 +7362,13 @@
         <v>958001</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="M50" s="7">
         <v>2278</v>
@@ -7362,13 +7377,13 @@
         <v>2410523</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7383,13 +7398,13 @@
         <v>3359450</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H51" s="7">
         <v>3316</v>
@@ -7398,13 +7413,13 @@
         <v>3519594</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M51" s="7">
         <v>6513</v>
@@ -7413,18 +7428,18 @@
         <v>6879044</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q4506-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q4506-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29BC5247-EB50-4332-BEFA-D827E0AD02CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAE1C233-B495-4BA4-B080-E891928DE903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE98C7EF-0B82-448D-BA92-921E4CD868C3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C5189F58-C58E-4E47-8F72-3367B434368F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="614">
   <si>
     <t>Población según la frecuencia con la que utilizaron crema solar con el factor de protección de 50 o mayor el pasado verano al aire libre en 2012 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -72,1807 +72,1813 @@
     <t>7,26%</t>
   </si>
   <si>
-    <t>5,67%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia con la que utilizaron crema solar con el factor de protección de 50 o mayor el pasado verano al aire libre en 2016 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia con la que utilizaron crema solar con el factor de protección de 50 o mayor el pasado verano al aire libre en 2016 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
   </si>
   <si>
     <t>43,24%</t>
   </si>
   <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
   </si>
   <si>
     <t>27,22%</t>
   </si>
   <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
   </si>
   <si>
     <t>35,04%</t>
   </si>
   <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
   </si>
 </sst>
 </file>
@@ -2284,7 +2290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D776D2-EE45-4932-90EC-2A75532B6A4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6AC45C-AB7C-46F4-980E-072C3EF72E09}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2516,7 +2522,7 @@
         <v>29</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -2525,13 +2531,13 @@
         <v>17129</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -2540,13 +2546,13 @@
         <v>22264</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,13 +2567,13 @@
         <v>51180</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -2576,13 +2582,13 @@
         <v>78995</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>125</v>
@@ -2591,13 +2597,13 @@
         <v>130174</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2618,13 @@
         <v>27284</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>37</v>
@@ -2627,13 +2633,13 @@
         <v>39630</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>64</v>
@@ -2642,13 +2648,13 @@
         <v>66913</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2669,13 @@
         <v>7470</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>38</v>
@@ -2678,13 +2684,13 @@
         <v>40983</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>45</v>
@@ -2693,13 +2699,13 @@
         <v>48453</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,13 +2720,13 @@
         <v>71514</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H10" s="7">
         <v>94</v>
@@ -2729,13 +2735,13 @@
         <v>100367</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M10" s="7">
         <v>161</v>
@@ -2744,13 +2750,13 @@
         <v>171881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,13 +2771,13 @@
         <v>32259</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -2780,13 +2786,13 @@
         <v>29967</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -2795,13 +2801,13 @@
         <v>62226</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2822,13 @@
         <v>12907</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -2831,13 +2837,13 @@
         <v>28779</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>39</v>
@@ -2846,13 +2852,13 @@
         <v>41686</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,13 +2873,13 @@
         <v>34882</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -2882,13 +2888,13 @@
         <v>36575</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -2897,13 +2903,13 @@
         <v>71457</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2924,13 @@
         <v>642090</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>578</v>
@@ -2933,13 +2939,13 @@
         <v>622608</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>1174</v>
@@ -2948,13 +2954,13 @@
         <v>1264697</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2975,13 @@
         <v>973678</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H15" s="7">
         <v>1246</v>
@@ -2984,13 +2990,13 @@
         <v>1336614</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M15" s="7">
         <v>2153</v>
@@ -2999,18 +3005,18 @@
         <v>2310292</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -3022,13 +3028,13 @@
         <v>153390</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>293</v>
@@ -3037,13 +3043,13 @@
         <v>318324</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M16" s="7">
         <v>438</v>
@@ -3052,13 +3058,13 @@
         <v>471714</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3079,13 @@
         <v>52414</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H17" s="7">
         <v>83</v>
@@ -3088,13 +3094,13 @@
         <v>86639</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M17" s="7">
         <v>133</v>
@@ -3103,13 +3109,13 @@
         <v>139053</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3130,13 @@
         <v>31452</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="H18" s="7">
         <v>61</v>
@@ -3139,13 +3145,13 @@
         <v>64408</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -3154,13 +3160,13 @@
         <v>95860</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3181,13 @@
         <v>87747</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>111</v>
@@ -3190,13 +3196,13 @@
         <v>119698</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>192</v>
@@ -3205,13 +3211,13 @@
         <v>207445</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,13 +3232,13 @@
         <v>73640</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="H20" s="7">
         <v>105</v>
@@ -3241,13 +3247,13 @@
         <v>110953</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>171</v>
@@ -3256,13 +3262,13 @@
         <v>184593</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3283,13 @@
         <v>74255</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H21" s="7">
         <v>98</v>
@@ -3292,13 +3298,13 @@
         <v>105008</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="M21" s="7">
         <v>170</v>
@@ -3307,13 +3313,13 @@
         <v>179263</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3334,13 @@
         <v>149286</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -3343,13 +3349,13 @@
         <v>169520</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M22" s="7">
         <v>308</v>
@@ -3358,13 +3364,13 @@
         <v>318806</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3385,13 @@
         <v>108328</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -3394,13 +3400,13 @@
         <v>60191</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M23" s="7">
         <v>162</v>
@@ -3409,13 +3415,13 @@
         <v>168519</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3436,13 @@
         <v>62040</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -3445,13 +3451,13 @@
         <v>31012</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="M24" s="7">
         <v>92</v>
@@ -3460,13 +3466,13 @@
         <v>93052</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3487,13 @@
         <v>113168</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -3496,13 +3502,13 @@
         <v>72464</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="M25" s="7">
         <v>175</v>
@@ -3511,13 +3517,13 @@
         <v>185632</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,13 +3538,13 @@
         <v>1053532</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="H26" s="7">
         <v>560</v>
@@ -3547,13 +3553,13 @@
         <v>614251</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M26" s="7">
         <v>1550</v>
@@ -3562,13 +3568,13 @@
         <v>1667784</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3589,13 @@
         <v>1959253</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H27" s="7">
         <v>1630</v>
@@ -3598,13 +3604,13 @@
         <v>1752469</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M27" s="7">
         <v>3481</v>
@@ -3613,18 +3619,18 @@
         <v>3711722</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -3636,13 +3642,13 @@
         <v>43355</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="H28" s="7">
         <v>89</v>
@@ -3651,13 +3657,13 @@
         <v>99180</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="M28" s="7">
         <v>126</v>
@@ -3666,13 +3672,13 @@
         <v>142535</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3693,13 @@
         <v>14857</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -3702,13 +3708,13 @@
         <v>27529</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -3717,13 +3723,13 @@
         <v>42387</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3744,13 @@
         <v>16935</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>120</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>47</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -3753,13 +3759,13 @@
         <v>25189</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -3768,13 +3774,13 @@
         <v>42125</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3795,13 @@
         <v>39213</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>43</v>
@@ -3804,13 +3810,13 @@
         <v>48007</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>79</v>
@@ -3819,13 +3825,13 @@
         <v>87220</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3846,13 @@
         <v>16191</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -3855,13 +3861,13 @@
         <v>25505</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>38</v>
@@ -3870,13 +3876,13 @@
         <v>41697</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>126</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3897,13 @@
         <v>33646</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H33" s="7">
         <v>19</v>
@@ -3906,13 +3912,13 @@
         <v>21775</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="M33" s="7">
         <v>47</v>
@@ -3921,13 +3927,13 @@
         <v>55421</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3948,13 @@
         <v>60902</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H34" s="7">
         <v>37</v>
@@ -3957,13 +3963,13 @@
         <v>40981</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M34" s="7">
         <v>94</v>
@@ -3972,13 +3978,13 @@
         <v>101884</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +3999,13 @@
         <v>37424</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H35" s="7">
         <v>20</v>
@@ -4008,13 +4014,13 @@
         <v>22255</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M35" s="7">
         <v>54</v>
@@ -4023,13 +4029,13 @@
         <v>59680</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4050,13 @@
         <v>8686</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -4059,13 +4065,13 @@
         <v>7154</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="M36" s="7">
         <v>15</v>
@@ -4074,13 +4080,13 @@
         <v>15840</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>23</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4101,13 @@
         <v>30763</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -4110,13 +4116,13 @@
         <v>18080</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>47</v>
+        <v>271</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>180</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="M37" s="7">
         <v>48</v>
@@ -4125,13 +4131,13 @@
         <v>48843</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>97</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4152,13 @@
         <v>178278</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="H38" s="7">
         <v>110</v>
@@ -4161,13 +4167,13 @@
         <v>121003</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M38" s="7">
         <v>273</v>
@@ -4176,13 +4182,13 @@
         <v>299281</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4203,13 @@
         <v>480252</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H39" s="7">
         <v>411</v>
@@ -4212,13 +4218,13 @@
         <v>456660</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M39" s="7">
         <v>848</v>
@@ -4227,13 +4233,13 @@
         <v>936912</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4256,13 @@
         <v>267447</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="H40" s="7">
         <v>653</v>
@@ -4265,13 +4271,13 @@
         <v>707674</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="M40" s="7">
         <v>899</v>
@@ -4280,13 +4286,13 @@
         <v>975122</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,13 +4307,13 @@
         <v>85525</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="H41" s="7">
         <v>154</v>
@@ -4316,13 +4322,13 @@
         <v>165581</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>287</v>
+        <v>97</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="M41" s="7">
         <v>233</v>
@@ -4331,13 +4337,13 @@
         <v>251107</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,13 +4358,13 @@
         <v>53523</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H42" s="7">
         <v>100</v>
@@ -4367,13 +4373,13 @@
         <v>106726</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>51</v>
+        <v>302</v>
       </c>
       <c r="M42" s="7">
         <v>149</v>
@@ -4382,13 +4388,13 @@
         <v>160249</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>293</v>
+        <v>26</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4409,13 @@
         <v>178140</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>139</v>
+        <v>305</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="H43" s="7">
         <v>230</v>
@@ -4418,13 +4424,13 @@
         <v>246699</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="M43" s="7">
         <v>396</v>
@@ -4433,13 +4439,13 @@
         <v>424840</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>299</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4460,13 @@
         <v>117115</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="H44" s="7">
         <v>165</v>
@@ -4469,13 +4475,13 @@
         <v>176088</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>301</v>
+        <v>148</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>302</v>
+        <v>183</v>
       </c>
       <c r="M44" s="7">
         <v>273</v>
@@ -4484,13 +4490,13 @@
         <v>293203</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>145</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4511,13 @@
         <v>115371</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="H45" s="7">
         <v>155</v>
@@ -4520,13 +4526,13 @@
         <v>167766</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="M45" s="7">
         <v>262</v>
@@ -4535,13 +4541,13 @@
         <v>283137</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>308</v>
+        <v>122</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>130</v>
+        <v>317</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,13 +4562,13 @@
         <v>281703</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>61</v>
+        <v>320</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="H46" s="7">
         <v>295</v>
@@ -4571,13 +4577,13 @@
         <v>310869</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="M46" s="7">
         <v>563</v>
@@ -4586,13 +4592,13 @@
         <v>592571</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4613,13 @@
         <v>178011</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>139</v>
+        <v>305</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>317</v>
+        <v>126</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>318</v>
+        <v>211</v>
       </c>
       <c r="H47" s="7">
         <v>108</v>
@@ -4622,13 +4628,13 @@
         <v>112414</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="M47" s="7">
         <v>274</v>
@@ -4637,13 +4643,13 @@
         <v>290425</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>322</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4664,13 @@
         <v>83633</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>85</v>
+        <v>329</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H48" s="7">
         <v>62</v>
@@ -4673,13 +4679,13 @@
         <v>66945</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="M48" s="7">
         <v>146</v>
@@ -4688,13 +4694,13 @@
         <v>150578</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>328</v>
+        <v>260</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4715,13 @@
         <v>178814</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>331</v>
+        <v>171</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="H49" s="7">
         <v>117</v>
@@ -4724,13 +4730,13 @@
         <v>127118</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>333</v>
+        <v>130</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="M49" s="7">
         <v>290</v>
@@ -4739,13 +4745,13 @@
         <v>305932</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>260</v>
+        <v>339</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4766,13 @@
         <v>1873899</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H50" s="7">
         <v>1248</v>
@@ -4775,13 +4781,13 @@
         <v>1357861</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M50" s="7">
         <v>2997</v>
@@ -4790,13 +4796,13 @@
         <v>3231761</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4817,13 @@
         <v>3413182</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H51" s="7">
         <v>3287</v>
@@ -4826,13 +4832,13 @@
         <v>3545742</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M51" s="7">
         <v>6482</v>
@@ -4841,18 +4847,18 @@
         <v>6958925</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4871,7 +4877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFD601D-1FDD-4638-ACC7-739A48D857AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C097483A-A1F6-4ECD-9EF9-93D7D056AE5C}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4888,7 +4894,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4995,13 +5001,13 @@
         <v>40833</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>347</v>
+        <v>252</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>37</v>
+        <v>352</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H4" s="7">
         <v>137</v>
@@ -5010,13 +5016,13 @@
         <v>155460</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M4" s="7">
         <v>179</v>
@@ -5025,13 +5031,13 @@
         <v>196293</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>217</v>
+        <v>357</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,13 +5052,13 @@
         <v>18619</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>354</v>
+        <v>61</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>37</v>
+        <v>361</v>
       </c>
       <c r="H5" s="7">
         <v>51</v>
@@ -5061,13 +5067,13 @@
         <v>54486</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>357</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
@@ -5076,13 +5082,13 @@
         <v>73105</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>57</v>
+        <v>363</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>358</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5103,13 @@
         <v>28217</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="H6" s="7">
         <v>48</v>
@@ -5112,13 +5118,13 @@
         <v>52119</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>361</v>
+        <v>38</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M6" s="7">
         <v>77</v>
@@ -5127,13 +5133,13 @@
         <v>80336</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5154,13 @@
         <v>38469</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>363</v>
+        <v>135</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H7" s="7">
         <v>60</v>
@@ -5163,13 +5169,13 @@
         <v>68810</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>368</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M7" s="7">
         <v>97</v>
@@ -5178,13 +5184,13 @@
         <v>107279</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>370</v>
+        <v>272</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5205,13 @@
         <v>23626</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>373</v>
+        <v>76</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>374</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>375</v>
+        <v>74</v>
       </c>
       <c r="H8" s="7">
         <v>45</v>
@@ -5214,13 +5220,13 @@
         <v>47618</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M8" s="7">
         <v>70</v>
@@ -5229,13 +5235,13 @@
         <v>71244</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>290</v>
+        <v>352</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>178</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,7 +5262,7 @@
         <v>380</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -5265,13 +5271,13 @@
         <v>47036</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M9" s="7">
         <v>64</v>
@@ -5280,13 +5286,13 @@
         <v>66284</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>127</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,13 +5307,13 @@
         <v>27985</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>386</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -5316,13 +5322,13 @@
         <v>56793</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>389</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>387</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>78</v>
@@ -5331,13 +5337,13 @@
         <v>84778</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>388</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,10 +5358,10 @@
         <v>24477</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>390</v>
+        <v>233</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>327</v>
+        <v>181</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>391</v>
@@ -5367,13 +5373,13 @@
         <v>27816</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>300</v>
+        <v>392</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>294</v>
+        <v>393</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>392</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>49</v>
@@ -5382,13 +5388,13 @@
         <v>52293</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>125</v>
+        <v>395</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,13 +5409,13 @@
         <v>19312</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>119</v>
+        <v>399</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -5418,13 +5424,13 @@
         <v>19762</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>396</v>
+        <v>119</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>169</v>
+        <v>400</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>397</v>
+        <v>95</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -5433,13 +5439,13 @@
         <v>39075</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5460,13 @@
         <v>31401</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>402</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>403</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -5469,13 +5475,13 @@
         <v>27675</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>402</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -5484,13 +5490,13 @@
         <v>59076</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>403</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>128</v>
+        <v>406</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>404</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5511,13 @@
         <v>479296</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H14" s="7">
         <v>384</v>
@@ -5520,13 +5526,13 @@
         <v>433329</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M14" s="7">
         <v>870</v>
@@ -5535,13 +5541,13 @@
         <v>912624</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5562,13 @@
         <v>751482</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H15" s="7">
         <v>889</v>
@@ -5571,13 +5577,13 @@
         <v>990906</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M15" s="7">
         <v>1648</v>
@@ -5586,18 +5592,18 @@
         <v>1742387</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -5609,13 +5615,13 @@
         <v>198208</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H16" s="7">
         <v>392</v>
@@ -5624,13 +5630,13 @@
         <v>413086</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M16" s="7">
         <v>575</v>
@@ -5639,13 +5645,13 @@
         <v>611294</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5666,13 @@
         <v>98053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H17" s="7">
         <v>174</v>
@@ -5675,13 +5681,13 @@
         <v>178397</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M17" s="7">
         <v>264</v>
@@ -5690,13 +5696,13 @@
         <v>276450</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>429</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5717,13 @@
         <v>156743</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>428</v>
+        <v>158</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H18" s="7">
         <v>198</v>
@@ -5726,13 +5732,13 @@
         <v>204492</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>431</v>
+        <v>200</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M18" s="7">
         <v>347</v>
@@ -5741,13 +5747,13 @@
         <v>361235</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +5768,13 @@
         <v>158177</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>437</v>
+        <v>158</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>243</v>
+        <v>438</v>
       </c>
       <c r="H19" s="7">
         <v>194</v>
@@ -5777,13 +5783,13 @@
         <v>205899</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M19" s="7">
         <v>343</v>
@@ -5792,13 +5798,13 @@
         <v>364076</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5819,13 @@
         <v>96424</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>445</v>
       </c>
       <c r="H20" s="7">
         <v>110</v>
@@ -5828,13 +5834,13 @@
         <v>114042</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>446</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="M20" s="7">
         <v>202</v>
@@ -5843,13 +5849,13 @@
         <v>210466</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>389</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5870,13 @@
         <v>162150</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>107</v>
+        <v>451</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>452</v>
       </c>
       <c r="H21" s="7">
         <v>142</v>
@@ -5879,13 +5885,13 @@
         <v>145655</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>449</v>
+        <v>163</v>
       </c>
       <c r="M21" s="7">
         <v>295</v>
@@ -5894,13 +5900,13 @@
         <v>307805</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5921,13 @@
         <v>102681</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>24</v>
+        <v>458</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>453</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>297</v>
+        <v>459</v>
       </c>
       <c r="H22" s="7">
         <v>103</v>
@@ -5930,13 +5936,13 @@
         <v>105440</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>250</v>
+        <v>462</v>
       </c>
       <c r="M22" s="7">
         <v>202</v>
@@ -5945,13 +5951,13 @@
         <v>208121</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>39</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5972,13 @@
         <v>95784</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>43</v>
       </c>
       <c r="H23" s="7">
         <v>74</v>
@@ -5981,13 +5987,13 @@
         <v>73255</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>461</v>
+        <v>269</v>
       </c>
       <c r="M23" s="7">
         <v>162</v>
@@ -5996,13 +6002,13 @@
         <v>169039</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>463</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6023,13 @@
         <v>77903</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>464</v>
+        <v>27</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -6032,13 +6038,13 @@
         <v>52574</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>466</v>
+        <v>304</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>467</v>
+        <v>119</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>468</v>
+        <v>265</v>
       </c>
       <c r="M24" s="7">
         <v>125</v>
@@ -6047,13 +6053,13 @@
         <v>130478</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6074,13 @@
         <v>90320</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>117</v>
+        <v>473</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -6083,28 +6089,28 @@
         <v>51422</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>294</v>
+        <v>476</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>223</v>
+        <v>477</v>
       </c>
       <c r="M25" s="7">
         <v>133</v>
       </c>
       <c r="N25" s="7">
-        <v>141741</v>
+        <v>141742</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>77</v>
+        <v>478</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>474</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>399</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6125,13 @@
         <v>826578</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H26" s="7">
         <v>413</v>
@@ -6134,13 +6140,13 @@
         <v>435286</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="M26" s="7">
         <v>1192</v>
@@ -6149,13 +6155,13 @@
         <v>1261864</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6176,13 @@
         <v>2063021</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H27" s="7">
         <v>1901</v>
@@ -6185,33 +6191,33 @@
         <v>1979548</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M27" s="7">
         <v>3840</v>
       </c>
       <c r="N27" s="7">
-        <v>4042569</v>
+        <v>4042570</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -6223,13 +6229,13 @@
         <v>93193</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="H28" s="7">
         <v>158</v>
@@ -6238,13 +6244,13 @@
         <v>168611</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="M28" s="7">
         <v>242</v>
@@ -6253,13 +6259,13 @@
         <v>261804</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6280,13 @@
         <v>47767</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="H29" s="7">
         <v>50</v>
@@ -6289,13 +6295,13 @@
         <v>52500</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>501</v>
       </c>
       <c r="M29" s="7">
         <v>96</v>
@@ -6304,13 +6310,13 @@
         <v>100267</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>311</v>
+        <v>502</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6331,13 @@
         <v>45827</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>498</v>
+        <v>161</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>500</v>
+        <v>248</v>
       </c>
       <c r="H30" s="7">
         <v>53</v>
@@ -6340,13 +6346,13 @@
         <v>56482</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="M30" s="7">
         <v>96</v>
@@ -6355,13 +6361,13 @@
         <v>102309</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,13 +6382,13 @@
         <v>52545</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="H31" s="7">
         <v>40</v>
@@ -6391,13 +6397,13 @@
         <v>41749</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>511</v>
+        <v>439</v>
       </c>
       <c r="M31" s="7">
         <v>89</v>
@@ -6406,13 +6412,13 @@
         <v>94295</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>513</v>
+        <v>307</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,13 +6433,13 @@
         <v>34995</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>455</v>
+        <v>519</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="H32" s="7">
         <v>32</v>
@@ -6442,13 +6448,13 @@
         <v>32412</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>517</v>
+        <v>403</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>47</v>
+        <v>521</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="M32" s="7">
         <v>64</v>
@@ -6457,13 +6463,13 @@
         <v>67407</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>370</v>
+        <v>272</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>127</v>
+        <v>523</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>436</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,13 +6484,13 @@
         <v>32664</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>519</v>
+        <v>51</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="H33" s="7">
         <v>45</v>
@@ -6493,13 +6499,13 @@
         <v>44126</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>522</v>
+        <v>239</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M33" s="7">
         <v>74</v>
@@ -6508,13 +6514,13 @@
         <v>76790</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>525</v>
+        <v>166</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,13 +6535,13 @@
         <v>32878</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>392</v>
+        <v>529</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>527</v>
+        <v>259</v>
       </c>
       <c r="H34" s="7">
         <v>29</v>
@@ -6544,13 +6550,13 @@
         <v>30030</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>121</v>
+        <v>531</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>529</v>
+        <v>227</v>
       </c>
       <c r="M34" s="7">
         <v>58</v>
@@ -6559,13 +6565,13 @@
         <v>62908</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>530</v>
+        <v>189</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>532</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,13 +6586,13 @@
         <v>20074</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>533</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>534</v>
+        <v>136</v>
       </c>
       <c r="H35" s="7">
         <v>18</v>
@@ -6595,13 +6601,13 @@
         <v>17018</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>535</v>
+        <v>405</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>458</v>
+        <v>156</v>
       </c>
       <c r="M35" s="7">
         <v>38</v>
@@ -6610,13 +6616,13 @@
         <v>37092</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>403</v>
+        <v>265</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>536</v>
+        <v>96</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>537</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,10 +6640,10 @@
         <v>379</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>78</v>
+        <v>534</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
       <c r="H36" s="7">
         <v>9</v>
@@ -6646,13 +6652,13 @@
         <v>9577</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>540</v>
+        <v>262</v>
       </c>
       <c r="M36" s="7">
         <v>22</v>
@@ -6661,13 +6667,13 @@
         <v>23501</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>542</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6688,13 @@
         <v>24430</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>333</v>
+        <v>95</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -6697,13 +6703,13 @@
         <v>7250</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>470</v>
+        <v>62</v>
       </c>
       <c r="M37" s="7">
         <v>30</v>
@@ -6712,13 +6718,13 @@
         <v>31681</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>323</v>
+        <v>33</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>308</v>
+        <v>541</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6739,13 @@
         <v>146649</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H38" s="7">
         <v>85</v>
@@ -6748,13 +6754,13 @@
         <v>89385</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="M38" s="7">
         <v>216</v>
@@ -6763,13 +6769,13 @@
         <v>236034</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6790,13 @@
         <v>544948</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H39" s="7">
         <v>526</v>
@@ -6799,13 +6805,13 @@
         <v>549140</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M39" s="7">
         <v>1025</v>
@@ -6814,13 +6820,13 @@
         <v>1094088</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6837,13 +6843,13 @@
         <v>332234</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>556</v>
+        <v>159</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="H40" s="7">
         <v>687</v>
@@ -6852,13 +6858,13 @@
         <v>737158</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="M40" s="7">
         <v>996</v>
@@ -6867,13 +6873,13 @@
         <v>1069391</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,13 +6894,13 @@
         <v>164439</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>399</v>
+        <v>327</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="H41" s="7">
         <v>275</v>
@@ -6903,13 +6909,13 @@
         <v>285383</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="M41" s="7">
         <v>429</v>
@@ -6918,13 +6924,13 @@
         <v>449822</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>569</v>
+        <v>239</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +6945,13 @@
         <v>230787</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>444</v>
+        <v>365</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="H42" s="7">
         <v>299</v>
@@ -6954,13 +6960,13 @@
         <v>313093</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>441</v>
+        <v>569</v>
       </c>
       <c r="M42" s="7">
         <v>520</v>
@@ -6969,13 +6975,13 @@
         <v>543880</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>314</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6990,13 +6996,13 @@
         <v>249191</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>578</v>
+        <v>161</v>
       </c>
       <c r="H43" s="7">
         <v>294</v>
@@ -7005,13 +7011,13 @@
         <v>316458</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>369</v>
+        <v>575</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M43" s="7">
         <v>529</v>
@@ -7020,13 +7026,13 @@
         <v>565649</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>219</v>
+        <v>579</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>582</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,13 +7047,13 @@
         <v>155045</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>385</v>
+        <v>515</v>
       </c>
       <c r="H44" s="7">
         <v>187</v>
@@ -7056,13 +7062,13 @@
         <v>194072</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>225</v>
+        <v>582</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>145</v>
+        <v>523</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>250</v>
+        <v>583</v>
       </c>
       <c r="M44" s="7">
         <v>336</v>
@@ -7071,13 +7077,13 @@
         <v>349116</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7092,13 +7098,13 @@
         <v>214062</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>587</v>
+        <v>136</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>495</v>
+        <v>586</v>
       </c>
       <c r="H45" s="7">
         <v>232</v>
@@ -7107,13 +7113,13 @@
         <v>236817</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>588</v>
+        <v>538</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>589</v>
+        <v>455</v>
       </c>
       <c r="M45" s="7">
         <v>433</v>
@@ -7122,13 +7128,13 @@
         <v>450879</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7149,13 @@
         <v>163544</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>453</v>
+        <v>589</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="H46" s="7">
         <v>182</v>
@@ -7158,13 +7164,13 @@
         <v>192263</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>307</v>
+        <v>590</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>230</v>
+        <v>391</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>378</v>
+        <v>591</v>
       </c>
       <c r="M46" s="7">
         <v>338</v>
@@ -7173,13 +7179,13 @@
         <v>355807</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="P46" s="7" t="s">
-        <v>593</v>
-      </c>
       <c r="Q46" s="7" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,13 +7200,13 @@
         <v>140335</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>468</v>
+        <v>593</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>594</v>
+        <v>458</v>
       </c>
       <c r="H47" s="7">
         <v>117</v>
@@ -7209,13 +7215,13 @@
         <v>118090</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="K47" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="L47" s="7" t="s">
-        <v>305</v>
+        <v>596</v>
       </c>
       <c r="M47" s="7">
         <v>249</v>
@@ -7224,13 +7230,13 @@
         <v>258425</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>404</v>
+        <v>589</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7245,10 +7251,10 @@
         <v>111140</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>597</v>
+        <v>304</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>598</v>
@@ -7263,10 +7269,10 @@
         <v>599</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>465</v>
+        <v>601</v>
       </c>
       <c r="M48" s="7">
         <v>184</v>
@@ -7275,13 +7281,13 @@
         <v>193053</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>300</v>
+        <v>392</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>469</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7296,13 +7302,13 @@
         <v>146151</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>601</v>
+        <v>461</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>363</v>
+        <v>603</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H49" s="7">
         <v>81</v>
@@ -7311,13 +7317,13 @@
         <v>86347</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>85</v>
+        <v>329</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>284</v>
+        <v>119</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>383</v>
+        <v>182</v>
       </c>
       <c r="M49" s="7">
         <v>221</v>
@@ -7326,13 +7332,13 @@
         <v>232498</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>422</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7347,13 +7353,13 @@
         <v>1452522</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H50" s="7">
         <v>882</v>
@@ -7362,13 +7368,13 @@
         <v>958001</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M50" s="7">
         <v>2278</v>
@@ -7377,13 +7383,13 @@
         <v>2410523</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7398,13 +7404,13 @@
         <v>3359450</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H51" s="7">
         <v>3316</v>
@@ -7413,13 +7419,13 @@
         <v>3519594</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M51" s="7">
         <v>6513</v>
@@ -7428,18 +7434,18 @@
         <v>6879044</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q4506-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q4506-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAE1C233-B495-4BA4-B080-E891928DE903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5D1D858-F98C-4BBD-9489-38659EC029AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C5189F58-C58E-4E47-8F72-3367B434368F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6C12F900-D55E-4B29-A5B4-884E5861A002}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -2290,7 +2290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6AC45C-AB7C-46F4-980E-072C3EF72E09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8CDF9D-07CB-47C3-8059-6707F0014BF7}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3002,7 +3002,7 @@
         <v>2153</v>
       </c>
       <c r="N15" s="7">
-        <v>2310292</v>
+        <v>2310291</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>107</v>
@@ -3720,7 +3720,7 @@
         <v>37</v>
       </c>
       <c r="N29" s="7">
-        <v>42387</v>
+        <v>42386</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>213</v>
@@ -4179,7 +4179,7 @@
         <v>273</v>
       </c>
       <c r="N38" s="7">
-        <v>299281</v>
+        <v>299280</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>281</v>
@@ -4230,7 +4230,7 @@
         <v>848</v>
       </c>
       <c r="N39" s="7">
-        <v>936912</v>
+        <v>936911</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>107</v>
@@ -4778,7 +4778,7 @@
         <v>1248</v>
       </c>
       <c r="I50" s="7">
-        <v>1357861</v>
+        <v>1357862</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>344</v>
@@ -4829,7 +4829,7 @@
         <v>3287</v>
       </c>
       <c r="I51" s="7">
-        <v>3545742</v>
+        <v>3545743</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>107</v>
@@ -4877,7 +4877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C097483A-A1F6-4ECD-9EF9-93D7D056AE5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D1F2C7-A570-4C99-BD48-D1C45BA92B47}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5574,7 +5574,7 @@
         <v>889</v>
       </c>
       <c r="I15" s="7">
-        <v>990906</v>
+        <v>990905</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>107</v>
@@ -6101,7 +6101,7 @@
         <v>133</v>
       </c>
       <c r="N25" s="7">
-        <v>141742</v>
+        <v>141741</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>478</v>
@@ -6203,7 +6203,7 @@
         <v>3840</v>
       </c>
       <c r="N27" s="7">
-        <v>4042570</v>
+        <v>4042569</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>107</v>
